--- a/BuildTool/Config/TypeTest.xlsx
+++ b/BuildTool/Config/TypeTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,14 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consume[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>original_Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,18 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10个筷子,20个桌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10个桌子,20个桌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10个盘子,20个桌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alias=Item.name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,7 +125,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asep=,|sep=个</t>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default=0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default = null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc|ABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc|ABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5,,6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default=0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default=nil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8,0.5|0,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J16" sqref="I16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,16 +642,21 @@
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="46.75" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,13 +667,28 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -586,10 +702,25 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -603,12 +734,27 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -617,26 +763,41 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>1</v>
       </c>
@@ -647,10 +808,25 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>2</v>
       </c>
@@ -661,10 +837,16 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>3</v>
       </c>
@@ -672,10 +854,13 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/BuildTool/Config/TypeTest.xlsx
+++ b/BuildTool/Config/TypeTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,10 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,26 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>筷子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桌子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>original_Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盘子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alias=Item.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ref=Item.id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,38 +125,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>alise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>圆的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,14 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vector2[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +174,86 @@
   </si>
   <si>
     <t>0.8,0.5|0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#int_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#float_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#strList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#v2_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#original_Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#inttest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floatarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default=2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,236 +643,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="I16:J16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="26.125" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +938,7 @@
   <sheetData>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
